--- a/Feature-Analysis/Resize Feature/s_24_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_24_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.56665509264</v>
+        <v>738157.56665509264</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.56734953704</v>
+        <v>738157.56734953704</v>
       </c>
       <c r="C3" s="0">
         <v>59.999996423721313</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.56734953704</v>
+        <v>738157.56734953704</v>
       </c>
       <c r="C4" s="0">
         <v>59.999996423721313</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.56770833337</v>
+        <v>738157.56770833337</v>
       </c>
       <c r="C5" s="0">
         <v>90.999999269843102</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.56804398145</v>
+        <v>738157.56804398145</v>
       </c>
       <c r="C6" s="0">
         <v>119.99999284744263</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.56839120365</v>
+        <v>738157.56839120365</v>
       </c>
       <c r="C7" s="0">
         <v>149.99999105930328</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.56873842597</v>
+        <v>738157.56873842597</v>
       </c>
       <c r="C8" s="0">
         <v>179.99999932944775</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.56909722218</v>
+        <v>738157.56909722218</v>
       </c>
       <c r="C9" s="0">
         <v>210.99999211728573</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.56943287037</v>
+        <v>738157.56943287037</v>
       </c>
       <c r="C10" s="0">
         <v>239.99999575316906</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.56978009257</v>
+        <v>738157.56978009257</v>
       </c>
       <c r="C11" s="0">
         <v>269.99999396502972</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.57045138883</v>
+        <v>738157.57045138883</v>
       </c>
       <c r="C12" s="0">
         <v>327.99999117851257</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.57082175929</v>
+        <v>738157.57082175929</v>
       </c>
       <c r="C13" s="0">
         <v>359.99999865889549</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.57082175929</v>
+        <v>738157.57082175929</v>
       </c>
       <c r="C14" s="0">
         <v>359.99999865889549</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.57152777782</v>
+        <v>738157.57152777782</v>
       </c>
       <c r="C15" s="0">
         <v>420.99999971687794</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.57152777782</v>
+        <v>738157.57152777782</v>
       </c>
       <c r="C16" s="0">
         <v>420.99999971687794</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.57187500002</v>
+        <v>738157.57187500002</v>
       </c>
       <c r="C17" s="0">
         <v>450.99999792873859</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.5722106481</v>
+        <v>738157.5722106481</v>
       </c>
       <c r="C18" s="0">
         <v>479.99999150633812</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.57289351849</v>
+        <v>738157.57289351849</v>
       </c>
       <c r="C19" s="0">
         <v>538.99999335408211</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.57321759255</v>
+        <v>738157.57321759255</v>
       </c>
       <c r="C20" s="0">
         <v>566.99999235570431</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.57358796301</v>
+        <v>738157.57358796301</v>
       </c>
       <c r="C21" s="0">
         <v>598.99999983608723</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.57392361108</v>
+        <v>738157.57392361108</v>
       </c>
       <c r="C22" s="0">
         <v>627.99999341368675</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.57427083328</v>
+        <v>738157.57427083328</v>
       </c>
       <c r="C23" s="0">
         <v>657.99999162554741</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.57460648147</v>
+        <v>738157.57460648147</v>
       </c>
       <c r="C24" s="0">
         <v>686.99999526143074</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.5749652778</v>
+        <v>738157.5749652778</v>
       </c>
       <c r="C25" s="0">
         <v>717.99999810755253</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.5753125</v>
+        <v>738157.5753125</v>
       </c>
       <c r="C26" s="0">
         <v>747.99999631941319</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.57565972221</v>
+        <v>738157.57565972221</v>
       </c>
       <c r="C27" s="0">
         <v>777.99999453127384</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.57601851854</v>
+        <v>738157.57601851854</v>
       </c>
       <c r="C28" s="0">
         <v>808.99999737739563</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.57636574074</v>
+        <v>738157.57636574074</v>
       </c>
       <c r="C29" s="0">
         <v>838.99999558925629</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.57671296294</v>
+        <v>738157.57671296294</v>
       </c>
       <c r="C30" s="0">
         <v>868.99999380111694</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.57704861113</v>
+        <v>738157.57704861113</v>
       </c>
       <c r="C31" s="0">
         <v>897.99999743700027</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.57740740746</v>
+        <v>738157.57740740746</v>
       </c>
       <c r="C32" s="0">
         <v>929.00000028312206</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.57775462966</v>
+        <v>738157.57775462966</v>
       </c>
       <c r="C33" s="0">
         <v>958.99999849498272</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.57807870372</v>
+        <v>738157.57807870372</v>
       </c>
       <c r="C34" s="0">
         <v>986.99999749660492</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.57842592592</v>
+        <v>738157.57842592592</v>
       </c>
       <c r="C35" s="0">
         <v>1016.9999957084656</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.57846064819</v>
+        <v>738157.57846064819</v>
       </c>
       <c r="C36" s="0">
         <v>1019.9999995529652</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.579212963</v>
+        <v>738157.579212963</v>
       </c>
       <c r="C37" s="0">
         <v>1084.9999990314245</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.579212963</v>
+        <v>738157.579212963</v>
       </c>
       <c r="C38" s="0">
         <v>1084.9999990314245</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.57981481485</v>
+        <v>738157.57981481485</v>
       </c>
       <c r="C39" s="0">
         <v>1136.999998614192</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.58018518519</v>
+        <v>738157.58018518519</v>
       </c>
       <c r="C40" s="0">
         <v>1168.9999960362911</v>
